--- a/College Case study Survey.xlsx
+++ b/College Case study Survey.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdiip\My Drive\UW\Bothell MBA\B BUS 510 Managing Organizational Effectiveness\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7499658-A60C-49C6-B7FF-D18C2FFA8332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="79">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="95">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Start time</t>
@@ -53,9 +53,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Last modified time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your role: </t>
   </si>
   <si>
@@ -65,7 +62,50 @@
     <t xml:space="preserve">Primary systems you touch weekly (check all): </t>
   </si>
   <si>
+    <t>I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me. .ICERTIS</t>
+  </si>
+  <si>
+    <t>I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me. .SPM ARIBA</t>
+  </si>
+  <si>
+    <t>I understood the “why” (benefits, pain points solved) before go-live. .ICERTIS</t>
+  </si>
+  <si>
+    <t>I understood the “why” (benefits, pain points solved) before go-live. .SPM ARIBA</t>
+  </si>
+  <si>
+    <t>My manager/leadership set clear expectations to use the new system(s) as the single source of record.</t>
+  </si>
+  <si>
     <t>If you choose "strongly disagree/disagree" What blocked that?</t>
+  </si>
+  <si>
+    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .Icertis</t>
+  </si>
+  <si>
+    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .SAP ARIBA</t>
+  </si>
+  <si>
+    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .Mainframe/MADR</t>
+  </si>
+  <si>
+    <t>For my common tasks, the system feels…
+ .ICETIS</t>
+  </si>
+  <si>
+    <t>For my common tasks, the system feels…
+ .SPM ARIBA</t>
+  </si>
+  <si>
+    <t>For my common tasks, the system feels…
+ .Mainframe/MADR</t>
+  </si>
+  <si>
+    <t>When I’m under time pressure, I can still complete tasks in the system without reverting to old methods.
+ .</t>
+  </si>
+  <si>
+    <t>The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. .</t>
   </si>
   <si>
     <t xml:space="preserve">Which would help you most in staying on the “happy path”? (Pick two) 
@@ -237,53 +277,62 @@
     <t>On-screen guided steps;Better search/reporting;</t>
   </si>
   <si>
-    <t>I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me - ICERTIS</t>
-  </si>
-  <si>
-    <t>I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me - SPM ARIBA</t>
-  </si>
-  <si>
-    <t>I understood the “why” (benefits, pain points solved) before go-live - SPM ARIBA</t>
-  </si>
-  <si>
-    <t>I understood the “why” (benefits, pain points solved) before go-live - ICERTIS</t>
-  </si>
-  <si>
-    <t>My manager/leadership set clear expectations to use the new system(s) as the single source of record</t>
-  </si>
-  <si>
-    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - Icertis</t>
-  </si>
-  <si>
-    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - SAP ARIBA</t>
-  </si>
-  <si>
-    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - Mainframe/MADR</t>
-  </si>
-  <si>
-    <t>For my common tasks, the system feels… - ICETIS</t>
-  </si>
-  <si>
-    <t>For my common tasks, the system feels… - SPM ARIBA</t>
-  </si>
-  <si>
-    <t>For my common tasks, the system feels… - Mainframe/MADR</t>
-  </si>
-  <si>
-    <t>When I’m under time pressure, I can still complete tasks in the system without reverting to old methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. </t>
+    <t>Aftermarket</t>
+  </si>
+  <si>
+    <t>Icertis;</t>
+  </si>
+  <si>
+    <t>Value not proven;Training Gaps;</t>
+  </si>
+  <si>
+    <t>Better search/reporting;1:1 Coaching;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would revert to the old process for executing and storing LTAs, prior to Icertis. The system is too complicated when adding schedules, amendments and even routing it for suppliers and internally for review and signatures. Also, it did not move everything that was stored into Icertis. </t>
+  </si>
+  <si>
+    <t>On-screen guided steps;Faster screens/ fewer checks;</t>
+  </si>
+  <si>
+    <t>ARIBA;GPPS/SAP;</t>
+  </si>
+  <si>
+    <t>Value not proven;Instructions were unclear;Speed;</t>
+  </si>
+  <si>
+    <t>1:1 Coaching;Office Hours;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back to manual since Icerties adds more complexity than value. </t>
+  </si>
+  <si>
+    <t>Value not proven;Speed;</t>
+  </si>
+  <si>
+    <t>Better search/reporting;Faster screens/ fewer checks;</t>
+  </si>
+  <si>
+    <t>The subject platforms/applications for this survey are not in use for our team.</t>
+  </si>
+  <si>
+    <t>1:1 Coaching;Better search/reporting;</t>
+  </si>
+  <si>
+    <t>The ability to edit or undo actions easier.  For example, iCertis, I often assign a step number initially and then later realize I assigned incorrectly or need additional steps.  The only way to fix now is to delete and reassign the role and step number.</t>
+  </si>
+  <si>
+    <t>Value not proven;Instructions were unclear;Speed;Training Gaps;</t>
+  </si>
+  <si>
+    <t>There’s a significant disconnect between our systems, and addressing it could really improve efficiency and collaboration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,86 +361,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="22">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -410,36 +449,209 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y16" totalsRowShown="0">
-  <autoFilter ref="A1:Y16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Your role: " dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Division / scope:" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Primary systems you touch weekly (check all): " dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me - ICERTIS" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me - SPM ARIBA" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="I understood the “why” (benefits, pain points solved) before go-live - ICERTIS" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="I understood the “why” (benefits, pain points solved) before go-live - SPM ARIBA" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="My manager/leadership set clear expectations to use the new system(s) as the single source of record" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="If you choose &quot;strongly disagree/disagree&quot; What blocked that?" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - Icertis" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - SAP ARIBA" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - Mainframe/MADR" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="For my common tasks, the system feels… - ICETIS" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="For my common tasks, the system feels… - SPM ARIBA" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="For my common tasks, the system feels… - Mainframe/MADR" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="When I’m under time pressure, I can still complete tasks in the system without reverting to old methods." dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. " dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Which would help you most in staying on the “happy path”? (Pick two) _x000a_ _x000a_ " dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="If you could change one thing in the workflow tomorrow, what would it be and why?" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:X24" totalsRowShown="0">
+  <autoFilter ref="A1:X24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="21">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="id"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="startDate"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="submitDate"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="20">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="responder"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="19">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="responderName"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Your role: " dataDxfId="18">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="rc5013c1498ce4c0da7c5c5bea76fa2d0"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Division / scope:" dataDxfId="17">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="rd3db087cba6347e790b09452b0729a77"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Primary systems you touch weekly (check all): " dataDxfId="16">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r486c2c503c1d453ca985f8f21aacb670"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me. .ICERTIS" dataDxfId="15">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r9f2daec0b5064cdc95c6ced19d9b7b70"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me. .SPM ARIBA" dataDxfId="14">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r19d0da2cabca4eab876931483bf8d8a9"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="I understood the “why” (benefits, pain points solved) before go-live. .ICERTIS" dataDxfId="13">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="rd4c90ebb2eee460daf384e7ebb6d526b"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="I understood the “why” (benefits, pain points solved) before go-live. .SPM ARIBA" dataDxfId="12">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r7604f65aed874f05a70608a032b23b6e"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="My manager/leadership set clear expectations to use the new system(s) as the single source of record." dataDxfId="11">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="re5e2ae2fa1bb4853957fba56d95bbbdf"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="If you choose &quot;strongly disagree/disagree&quot; What blocked that?" dataDxfId="10">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="ra36bf946af5246d4ad491dc7787cd9eb"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .Icertis" dataDxfId="9">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r3f21430308e74c738b2429ec3df3831f"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .SAP ARIBA" dataDxfId="8">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r7a32a9b708cd49e988f452220fbe3ea9"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .Mainframe/MADR" dataDxfId="7">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r6641b33231114ec38e942b701a5c4802"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="For my common tasks, the system feels…_x000a_ .ICETIS" dataDxfId="6">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r5ac34668b3e047c6b54eedbb8221bd49"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="For my common tasks, the system feels…_x000a_ .SPM ARIBA" dataDxfId="5">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r9b728c6dcb594336803aaa7f9895772b"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="For my common tasks, the system feels…_x000a_ .Mainframe/MADR" dataDxfId="4">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="rb2dd4b010bfa4e42b4800e84aa38673b"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="When I’m under time pressure, I can still complete tasks in the system without reverting to old methods._x000a_ ." dataDxfId="3">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="ra2668cac4fdc469d8b4cbf196cca7132"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. ." dataDxfId="2">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r21bf3c8f7b9d45ba906a86fb07172786"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Which would help you most in staying on the “happy path”? (Pick two) _x000a_ _x000a_ " dataDxfId="1">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r8fd89be41d444b8687e6b4958e99b21c"/>
+        </ext>
+      </extLst>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="If you could change one thing in the workflow tomorrow, what would it be and why?" dataDxfId="0">
+      <extLst>
+        <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
+          <xlmsforms:question id="r1b2f0b7888df499aa1da8d59e636e3a0"/>
+        </ext>
+      </extLst>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
+      <xlmsforms:msForm id="-asB4qPF-EOOKRNdT-Z-a4jG1-4FZvhNnX6YZvfeeHlUQ0k5OE85WUc5VTcyOUNHTkwxVkowWTBOQS4u" isFormConnected="1" maxResponseId="23" latestEventMarker="0">
+        <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>responder</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>responderName</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>rc5013c1498ce4c0da7c5c5bea76fa2d0</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>rd3db087cba6347e790b09452b0729a77</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r486c2c503c1d453ca985f8f21aacb670</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r9f2daec0b5064cdc95c6ced19d9b7b70</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r19d0da2cabca4eab876931483bf8d8a9</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>rd4c90ebb2eee460daf384e7ebb6d526b</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r7604f65aed874f05a70608a032b23b6e</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>re5e2ae2fa1bb4853957fba56d95bbbdf</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>ra36bf946af5246d4ad491dc7787cd9eb</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r3f21430308e74c738b2429ec3df3831f</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r7a32a9b708cd49e988f452220fbe3ea9</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r6641b33231114ec38e942b701a5c4802</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r5ac34668b3e047c6b54eedbb8221bd49</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r9b728c6dcb594336803aaa7f9895772b</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>rb2dd4b010bfa4e42b4800e84aa38673b</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>ra2668cac4fdc469d8b4cbf196cca7132</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r21bf3c8f7b9d45ba906a86fb07172786</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r8fd89be41d444b8687e6b4958e99b21c</xlmsforms:syncedQuestionId>
+        <xlmsforms:syncedQuestionId>r1b2f0b7888df499aa1da8d59e636e3a0</xlmsforms:syncedQuestionId>
+      </xlmsforms:msForm>
+    </ext>
+  </extLst>
 </table>
 </file>
 
@@ -740,18 +952,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="24" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,1108 +990,1637 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45968.9347569444</v>
+        <v>45968.934756944444</v>
       </c>
       <c r="C2" s="1">
         <v>45968.936249999999</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45971.441770833299</v>
+        <v>45971.441770833335</v>
       </c>
       <c r="C3" s="1">
-        <v>45971.446331018502</v>
+        <v>45971.446331018517</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="V3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="W3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45971.443703703699</v>
+        <v>45971.443703703706</v>
       </c>
       <c r="C4" s="1">
-        <v>45971.448993055601</v>
+        <v>45971.448993055557</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45971.4460763889</v>
+        <v>45971.446076388886</v>
       </c>
       <c r="C5" s="1">
-        <v>45971.450057870403</v>
+        <v>45971.450057870374</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
       <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" t="s">
-        <v>18</v>
-      </c>
       <c r="S5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="X5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45971.4452199074</v>
+        <v>45971.445219907408</v>
       </c>
       <c r="C6" s="1">
-        <v>45971.452997685199</v>
+        <v>45971.452997685185</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="X6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45971.456377314797</v>
+        <v>45971.456377314818</v>
       </c>
       <c r="C7" s="1">
-        <v>45971.461412037002</v>
+        <v>45971.461412037039</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45971.481747685197</v>
+        <v>45971.481747685182</v>
       </c>
       <c r="C8" s="1">
-        <v>45971.4863541667</v>
+        <v>45971.486354166664</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="S8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="W8" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="X8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45971.549722222197</v>
+        <v>45971.549722222226</v>
       </c>
       <c r="C9" s="1">
-        <v>45971.551886574103</v>
+        <v>45971.551886574074</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" t="s">
-        <v>21</v>
-      </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="V9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="W9" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45971.568206018499</v>
+        <v>45971.568206018521</v>
       </c>
       <c r="C10" s="1">
-        <v>45971.570104166698</v>
+        <v>45971.570104166669</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="V10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="W10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>45971.567326388897</v>
+        <v>45971.567326388889</v>
       </c>
       <c r="C11" s="1">
-        <v>45971.571111111101</v>
+        <v>45971.571111111109</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="U11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="V11" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="W11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="X11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>45971.570775462998</v>
+        <v>45971.570775462962</v>
       </c>
       <c r="C12" s="1">
-        <v>45971.574780092596</v>
+        <v>45971.574780092589</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R12" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="S12" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V12" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="W12" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>45971.560787037</v>
+        <v>45971.560787037037</v>
       </c>
       <c r="C13" s="1">
-        <v>45971.575266203698</v>
+        <v>45971.575266203705</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="U13" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="V13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W13" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45971.5760532407</v>
+        <v>45971.576053240744</v>
       </c>
       <c r="C14" s="1">
-        <v>45971.579537037003</v>
+        <v>45971.57953703704</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="V14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="W14" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>45971.619351851798</v>
+        <v>45971.619351851848</v>
       </c>
       <c r="C15" s="1">
-        <v>45971.621863425898</v>
+        <v>45971.621863425928</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" t="s">
         <v>63</v>
       </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" t="s">
-        <v>22</v>
-      </c>
-      <c r="V15" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" t="s">
-        <v>16</v>
-      </c>
       <c r="X15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>45971.6319097222</v>
+        <v>45971.631909722222</v>
       </c>
       <c r="C16" s="1">
-        <v>45971.635636574101</v>
+        <v>45971.635636574072</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45972.543796296297</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45972.54923611111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="J16" t="s">
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45972.560219907406</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45972.563125000001</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" t="s">
+        <v>32</v>
+      </c>
+      <c r="W18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45972.571840277778</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45972.573506944442</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
         <v>30</v>
       </c>
-      <c r="L16" t="s">
+      <c r="Q19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" t="s">
+        <v>86</v>
+      </c>
+      <c r="X19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45974.420185185183</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45974.426620370374</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X16" t="s">
-        <v>65</v>
+      <c r="B21" s="1">
+        <v>45974.424050925925</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45974.429398148146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45974.425358796296</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45974.435219907406</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s">
+        <v>89</v>
+      </c>
+      <c r="X22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45974.427662037036</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45974.436180555553</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45974.449282407404</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45974.452592592592</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" t="s">
+        <v>29</v>
+      </c>
+      <c r="W24" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/College Case study Survey.xlsx
+++ b/College Case study Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdiip\My Drive\UW\Bothell MBA\B BUS 510 Managing Organizational Effectiveness\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECEFA1C-88FB-4741-AD46-29AD77E8F016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="95">
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Start time</t>
   </si>
   <si>
@@ -62,50 +59,7 @@
     <t xml:space="preserve">Primary systems you touch weekly (check all): </t>
   </si>
   <si>
-    <t>I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me. .ICERTIS</t>
-  </si>
-  <si>
-    <t>I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me. .SPM ARIBA</t>
-  </si>
-  <si>
-    <t>I understood the “why” (benefits, pain points solved) before go-live. .ICERTIS</t>
-  </si>
-  <si>
-    <t>I understood the “why” (benefits, pain points solved) before go-live. .SPM ARIBA</t>
-  </si>
-  <si>
-    <t>My manager/leadership set clear expectations to use the new system(s) as the single source of record.</t>
-  </si>
-  <si>
     <t>If you choose "strongly disagree/disagree" What blocked that?</t>
-  </si>
-  <si>
-    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .Icertis</t>
-  </si>
-  <si>
-    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .SAP ARIBA</t>
-  </si>
-  <si>
-    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .Mainframe/MADR</t>
-  </si>
-  <si>
-    <t>For my common tasks, the system feels…
- .ICETIS</t>
-  </si>
-  <si>
-    <t>For my common tasks, the system feels…
- .SPM ARIBA</t>
-  </si>
-  <si>
-    <t>For my common tasks, the system feels…
- .Mainframe/MADR</t>
-  </si>
-  <si>
-    <t>When I’m under time pressure, I can still complete tasks in the system without reverting to old methods.
- .</t>
-  </si>
-  <si>
-    <t>The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. .</t>
   </si>
   <si>
     <t xml:space="preserve">Which would help you most in staying on the “happy path”? (Pick two) 
@@ -326,13 +280,55 @@
   </si>
   <si>
     <t>There’s a significant disconnect between our systems, and addressing it could really improve efficiency and collaboration</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me - ICERTIS</t>
+  </si>
+  <si>
+    <t>I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me - SPM ARIBA</t>
+  </si>
+  <si>
+    <t>I understood the “why” (benefits, pain points solved) before go-live - ICERTIS</t>
+  </si>
+  <si>
+    <t>I understood the “why” (benefits, pain points solved) before go-live - SPM ARIBA</t>
+  </si>
+  <si>
+    <t>My manager/leadership set clear expectations to use the new system(s) as the single source of record</t>
+  </si>
+  <si>
+    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - Icertis</t>
+  </si>
+  <si>
+    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - SAP ARIBA</t>
+  </si>
+  <si>
+    <t>The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - Mainframe/MADR</t>
+  </si>
+  <si>
+    <t>For my common tasks, the system feels… - ICETIS</t>
+  </si>
+  <si>
+    <t>For my common tasks, the system feels… - SPM ARIBA</t>
+  </si>
+  <si>
+    <t>For my common tasks, the system feels… - Mainframe/MADR</t>
+  </si>
+  <si>
+    <t>When I’m under time pressure, I can still complete tasks in the system without reverting to old methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,9 +357,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +450,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:X24" totalsRowShown="0">
   <autoFilter ref="A1:X24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="21">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="id"/>
@@ -508,35 +506,35 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me. .ICERTIS" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me - ICERTIS" dataDxfId="15">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r9f2daec0b5064cdc95c6ced19d9b7b70"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me. .SPM ARIBA" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="I (or my group) were involved early enough (requirements, testing) in the last rollout of ICERTIS/SPM ARIBA affecting me - SPM ARIBA" dataDxfId="14">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r19d0da2cabca4eab876931483bf8d8a9"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="I understood the “why” (benefits, pain points solved) before go-live. .ICERTIS" dataDxfId="13">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="I understood the “why” (benefits, pain points solved) before go-live - ICERTIS" dataDxfId="13">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rd4c90ebb2eee460daf384e7ebb6d526b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="I understood the “why” (benefits, pain points solved) before go-live. .SPM ARIBA" dataDxfId="12">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="I understood the “why” (benefits, pain points solved) before go-live - SPM ARIBA" dataDxfId="12">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r7604f65aed874f05a70608a032b23b6e"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="My manager/leadership set clear expectations to use the new system(s) as the single source of record." dataDxfId="11">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="My manager/leadership set clear expectations to use the new system(s) as the single source of record" dataDxfId="11">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="re5e2ae2fa1bb4853957fba56d95bbbdf"/>
@@ -550,56 +548,56 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .Icertis" dataDxfId="9">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - Icertis" dataDxfId="9">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r3f21430308e74c738b2429ec3df3831f"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .SAP ARIBA" dataDxfId="8">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - SAP ARIBA" dataDxfId="8">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r7a32a9b708cd49e988f452220fbe3ea9"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely. .Mainframe/MADR" dataDxfId="7">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="The training I received on ICERTIS/ARIBA/ MADR was sufficient and timely - Mainframe/MADR" dataDxfId="7">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r6641b33231114ec38e942b701a5c4802"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="For my common tasks, the system feels…_x000a_ .ICETIS" dataDxfId="6">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="For my common tasks, the system feels… - ICETIS" dataDxfId="6">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r5ac34668b3e047c6b54eedbb8221bd49"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="For my common tasks, the system feels…_x000a_ .SPM ARIBA" dataDxfId="5">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="For my common tasks, the system feels… - SPM ARIBA" dataDxfId="5">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r9b728c6dcb594336803aaa7f9895772b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="For my common tasks, the system feels…_x000a_ .Mainframe/MADR" dataDxfId="4">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="For my common tasks, the system feels… - Mainframe/MADR" dataDxfId="4">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rb2dd4b010bfa4e42b4800e84aa38673b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="When I’m under time pressure, I can still complete tasks in the system without reverting to old methods._x000a_ ." dataDxfId="3">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="When I’m under time pressure, I can still complete tasks in the system without reverting to old methods." dataDxfId="3">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="ra2668cac4fdc469d8b4cbf196cca7132"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. ." dataDxfId="2">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. " dataDxfId="2">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r21bf3c8f7b9d45ba906a86fb07172786"/>
@@ -954,88 +952,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="24" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="X1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1046,67 +1046,67 @@
         <v>45968.936249999999</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="X2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1117,67 +1117,67 @@
         <v>45971.446331018517</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="X3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1188,64 +1188,64 @@
         <v>45971.448993055557</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="T4" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" t="s">
-        <v>43</v>
-      </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1256,67 +1256,67 @@
         <v>45971.450057870374</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1327,67 +1327,67 @@
         <v>45971.452997685185</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1398,64 +1398,64 @@
         <v>45971.461412037039</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
         <v>29</v>
       </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" t="s">
-        <v>43</v>
-      </c>
       <c r="U7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="V7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1466,67 +1466,67 @@
         <v>45971.486354166664</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="V8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1537,67 +1537,67 @@
         <v>45971.551886574074</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" t="s">
         <v>50</v>
       </c>
-      <c r="U9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" t="s">
-        <v>29</v>
-      </c>
-      <c r="W9" t="s">
-        <v>63</v>
-      </c>
-      <c r="X9" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1608,67 +1608,67 @@
         <v>45971.570104166669</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1679,67 +1679,67 @@
         <v>45971.571111111109</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="R11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="W11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="X11" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1750,64 +1750,64 @@
         <v>45971.574780092589</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" t="s">
-        <v>29</v>
-      </c>
-      <c r="W12" t="s">
-        <v>39</v>
-      </c>
       <c r="X12" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1818,61 +1818,61 @@
         <v>45971.575266203705</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W13" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1883,64 +1883,64 @@
         <v>45971.57953703704</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="X14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1951,67 +1951,67 @@
         <v>45971.621863425928</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
         <v>29</v>
       </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="S15" t="s">
         <v>29</v>
       </c>
-      <c r="N15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" t="s">
-        <v>43</v>
-      </c>
       <c r="T15" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="V15" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="W15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="X15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2022,61 +2022,61 @@
         <v>45971.635636574072</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="S16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="T16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="U16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2087,67 +2087,67 @@
         <v>45972.54923611111</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="O17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Q17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="R17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="U17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="W17" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X17" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2158,61 +2158,61 @@
         <v>45972.563125000001</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
         <v>30</v>
       </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s">
-        <v>44</v>
-      </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="W18" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2223,67 +2223,67 @@
         <v>45972.573506944442</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N19" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P19" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="R19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" t="s">
         <v>72</v>
       </c>
-      <c r="T19" t="s">
-        <v>34</v>
-      </c>
-      <c r="U19" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" t="s">
-        <v>86</v>
-      </c>
       <c r="X19" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2294,64 +2294,64 @@
         <v>45974.426620370374</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="U20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="V20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="W20" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2362,61 +2362,61 @@
         <v>45974.429398148146</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" t="s">
         <v>75</v>
       </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" t="s">
-        <v>33</v>
-      </c>
-      <c r="S21" t="s">
-        <v>34</v>
-      </c>
-      <c r="T21" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" t="s">
-        <v>32</v>
-      </c>
-      <c r="V21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W21" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2427,64 +2427,64 @@
         <v>45974.435219907406</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" t="s">
         <v>30</v>
       </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" t="s">
-        <v>34</v>
-      </c>
-      <c r="S22" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22" t="s">
-        <v>34</v>
-      </c>
-      <c r="U22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V22" t="s">
-        <v>44</v>
-      </c>
       <c r="W22" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2495,64 +2495,64 @@
         <v>45974.436180555553</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" t="s">
         <v>30</v>
       </c>
-      <c r="J23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" t="s">
-        <v>44</v>
-      </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P23" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q23" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="R23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="S23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="T23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="V23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="W23" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2563,64 +2563,64 @@
         <v>45974.452592592592</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N24" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="U24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="W24" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="X24" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/College Case study Survey.xlsx
+++ b/College Case study Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdiip\My Drive\UW\Bothell MBA\B BUS 510 Managing Organizational Effectiveness\Group Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECEFA1C-88FB-4741-AD46-29AD77E8F016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14B1DD-ED6D-4FE5-97C6-6FBC4645DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="96">
   <si>
     <t>Start time</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t xml:space="preserve">The information I need (prices, terms, agreements) is accurate and complete where I expect to find it. </t>
+  </si>
+  <si>
+    <t>Last modified time</t>
   </si>
 </sst>
 </file>
@@ -447,9 +450,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:X24" totalsRowShown="0">
-  <autoFilter ref="A1:X24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:Y24" totalsRowShown="0">
+  <autoFilter ref="A1:Y24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="21">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
@@ -485,6 +488,7 @@
         </ext>
       </extLst>
     </tableColumn>
+    <tableColumn id="25" xr3:uid="{70FD0520-868C-42C8-9E28-EE86244179E4}" name="Last modified time"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Your role: " dataDxfId="18">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
@@ -950,18 +954,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="25" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -978,64 +984,67 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1048,20 +1057,17 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1070,43 +1076,46 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>20</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>16</v>
       </c>
-      <c r="V2" t="s">
-        <v>18</v>
-      </c>
       <c r="W2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1119,18 +1128,15 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
@@ -1144,19 +1150,19 @@
         <v>14</v>
       </c>
       <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q3" t="s">
         <v>15</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
         <v>19</v>
@@ -1165,19 +1171,22 @@
         <v>19</v>
       </c>
       <c r="U3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s">
         <v>15</v>
       </c>
       <c r="W3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" t="s">
         <v>25</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1190,44 +1199,41 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
       </c>
       <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
-        <v>28</v>
-      </c>
       <c r="P4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q4" t="s">
         <v>15</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
         <v>29</v>
@@ -1236,16 +1242,19 @@
         <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
         <v>30</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1258,35 +1267,32 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>35</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
       </c>
       <c r="P5" t="s">
         <v>16</v>
@@ -1295,28 +1301,31 @@
         <v>16</v>
       </c>
       <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
         <v>20</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
       </c>
       <c r="T5" t="s">
         <v>36</v>
       </c>
       <c r="U5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" t="s">
         <v>37</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1329,65 +1338,65 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" t="s">
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
         <v>39</v>
       </c>
-      <c r="O6" t="s">
-        <v>15</v>
-      </c>
       <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" t="s">
-        <v>18</v>
-      </c>
       <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
         <v>19</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>36</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>20</v>
       </c>
-      <c r="U6" t="s">
-        <v>15</v>
-      </c>
       <c r="V6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" t="s">
         <v>40</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1400,62 +1409,62 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
       <c r="P7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
         <v>36</v>
-      </c>
-      <c r="S7" t="s">
-        <v>29</v>
       </c>
       <c r="T7" t="s">
         <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1468,18 +1477,15 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
@@ -1493,11 +1499,11 @@
         <v>14</v>
       </c>
       <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
         <v>45</v>
       </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
       <c r="P8" t="s">
         <v>18</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S8" t="s">
         <v>19</v>
@@ -1514,19 +1520,22 @@
         <v>19</v>
       </c>
       <c r="U8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" t="s">
         <v>37</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1539,65 +1548,65 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s">
-        <v>28</v>
-      </c>
       <c r="P9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="s">
         <v>18</v>
       </c>
       <c r="R9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" t="s">
         <v>20</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>19</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>36</v>
       </c>
-      <c r="U9" t="s">
-        <v>15</v>
-      </c>
       <c r="V9" t="s">
         <v>15</v>
       </c>
       <c r="W9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X9" t="s">
         <v>49</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1610,18 +1619,15 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
@@ -1635,40 +1641,43 @@
         <v>14</v>
       </c>
       <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
         <v>51</v>
       </c>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" t="s">
         <v>19</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>36</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>20</v>
       </c>
-      <c r="U10" t="s">
-        <v>14</v>
-      </c>
       <c r="V10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" t="s">
         <v>31</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1681,18 +1690,15 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
@@ -1703,14 +1709,14 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
         <v>17</v>
       </c>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
       <c r="P11" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S11" t="s">
         <v>19</v>
@@ -1727,19 +1733,22 @@
         <v>19</v>
       </c>
       <c r="U11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" t="s">
         <v>34</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>53</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1752,18 +1761,15 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
@@ -1771,43 +1777,46 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" t="s">
         <v>18</v>
       </c>
       <c r="P12" t="s">
         <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" t="s">
         <v>19</v>
-      </c>
-      <c r="S12" t="s">
-        <v>29</v>
       </c>
       <c r="T12" t="s">
         <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="V12" t="s">
         <v>15</v>
       </c>
       <c r="W12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" t="s">
         <v>25</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1820,59 +1829,59 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" t="s">
         <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
         <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="s">
         <v>15</v>
       </c>
       <c r="R13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S13" t="s">
         <v>20</v>
       </c>
       <c r="T13" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s">
         <v>19</v>
       </c>
-      <c r="U13" t="s">
-        <v>28</v>
-      </c>
       <c r="V13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="W13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1885,18 +1894,15 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>57</v>
       </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
@@ -1909,38 +1915,41 @@
       <c r="M14" t="s">
         <v>18</v>
       </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>18</v>
       </c>
       <c r="P14" t="s">
         <v>18</v>
       </c>
       <c r="Q14" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" t="s">
         <v>16</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>36</v>
-      </c>
-      <c r="S14" t="s">
-        <v>58</v>
       </c>
       <c r="T14" t="s">
         <v>58</v>
       </c>
       <c r="U14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" t="s">
         <v>16</v>
       </c>
-      <c r="V14" t="s">
-        <v>18</v>
-      </c>
       <c r="W14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" t="s">
         <v>59</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1953,65 +1962,65 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="O15" t="s">
-        <v>15</v>
-      </c>
       <c r="P15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S15" t="s">
         <v>29</v>
       </c>
       <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" t="s">
         <v>20</v>
       </c>
-      <c r="U15" t="s">
-        <v>18</v>
-      </c>
       <c r="V15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="W15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" t="s">
         <v>49</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2024,31 +2033,28 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>23</v>
       </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
       <c r="J16" t="s">
         <v>28</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
         <v>30</v>
       </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>18</v>
       </c>
       <c r="P16" t="s">
@@ -2058,7 +2064,7 @@
         <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="S16" t="s">
         <v>29</v>
@@ -2067,16 +2073,19 @@
         <v>29</v>
       </c>
       <c r="U16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="V16" t="s">
         <v>18</v>
       </c>
       <c r="W16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2089,65 +2098,65 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>64</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>65</v>
       </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
         <v>30</v>
       </c>
-      <c r="M17" t="s">
-        <v>15</v>
-      </c>
       <c r="N17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="O17" t="s">
-        <v>15</v>
-      </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q17" t="s">
         <v>28</v>
       </c>
       <c r="R17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" t="s">
         <v>19</v>
-      </c>
-      <c r="S17" t="s">
-        <v>20</v>
       </c>
       <c r="T17" t="s">
         <v>20</v>
       </c>
       <c r="U17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s">
         <v>15</v>
       </c>
       <c r="W17" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" t="s">
         <v>67</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2160,41 +2169,38 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>61</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
       <c r="K18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s">
         <v>30</v>
       </c>
-      <c r="L18" t="s">
-        <v>15</v>
-      </c>
       <c r="M18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="P18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="R18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="S18" t="s">
         <v>20</v>
@@ -2203,16 +2209,19 @@
         <v>20</v>
       </c>
       <c r="U18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W18" t="s">
+        <v>18</v>
+      </c>
+      <c r="X18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2225,65 +2234,65 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>70</v>
       </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
       <c r="J19" t="s">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" t="s">
         <v>71</v>
       </c>
-      <c r="O19" t="s">
-        <v>28</v>
-      </c>
       <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" t="s">
-        <v>28</v>
-      </c>
       <c r="R19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" t="s">
         <v>19</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>58</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>20</v>
       </c>
-      <c r="U19" t="s">
-        <v>14</v>
-      </c>
       <c r="V19" t="s">
         <v>14</v>
       </c>
       <c r="W19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" t="s">
         <v>72</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2296,44 +2305,41 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>42</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>23</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
       <c r="J20" t="s">
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
         <v>74</v>
       </c>
-      <c r="O20" t="s">
-        <v>18</v>
-      </c>
       <c r="P20" t="s">
         <v>18</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="S20" t="s">
         <v>20</v>
@@ -2342,16 +2348,19 @@
         <v>20</v>
       </c>
       <c r="U20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V20" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="W20" t="s">
+        <v>14</v>
+      </c>
+      <c r="X20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2364,59 +2373,59 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>64</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>61</v>
       </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s">
         <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" t="s">
         <v>19</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>20</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>19</v>
       </c>
-      <c r="U21" t="s">
-        <v>18</v>
-      </c>
       <c r="V21" t="s">
         <v>18</v>
       </c>
       <c r="W21" t="s">
+        <v>18</v>
+      </c>
+      <c r="X21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2429,41 +2438,38 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>12</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>23</v>
       </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
         <v>30</v>
       </c>
       <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
         <v>16</v>
       </c>
-      <c r="O22" t="s">
-        <v>18</v>
-      </c>
       <c r="P22" t="s">
         <v>18</v>
       </c>
       <c r="Q22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S22" t="s">
         <v>20</v>
@@ -2472,19 +2478,22 @@
         <v>20</v>
       </c>
       <c r="U22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" t="s">
         <v>30</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>75</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2497,62 +2506,62 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>61</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
-        <v>28</v>
-      </c>
       <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
         <v>34</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>30</v>
       </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" t="s">
-        <v>18</v>
+      <c r="N23" t="s">
+        <v>28</v>
       </c>
       <c r="P23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q23" t="s">
         <v>14</v>
       </c>
       <c r="R23" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="S23" t="s">
         <v>29</v>
       </c>
       <c r="T23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" t="s">
         <v>19</v>
       </c>
-      <c r="U23" t="s">
-        <v>15</v>
-      </c>
       <c r="V23" t="s">
         <v>15</v>
       </c>
       <c r="W23" t="s">
+        <v>15</v>
+      </c>
+      <c r="X23" t="s">
         <v>77</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2565,18 +2574,15 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>12</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>13</v>
       </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
@@ -2590,11 +2596,11 @@
         <v>14</v>
       </c>
       <c r="N24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" t="s">
         <v>79</v>
       </c>
-      <c r="O24" t="s">
-        <v>14</v>
-      </c>
       <c r="P24" t="s">
         <v>14</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>14</v>
       </c>
       <c r="R24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S24" t="s">
         <v>19</v>
@@ -2611,15 +2617,18 @@
         <v>19</v>
       </c>
       <c r="U24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W24" t="s">
+        <v>15</v>
+      </c>
+      <c r="X24" t="s">
         <v>31</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>80</v>
       </c>
     </row>
